--- a/data/output/bases-separadas/-7.xlsx
+++ b/data/output/bases-separadas/-7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,1210 @@
           <t>cnpj</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cnae</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2753327000402</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>05929913000100</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>7774765000128</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07976147002295</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>10678505000163</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>09146749000116</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>6002259000158</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04705718000134</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>7976147001302</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08895796000108</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>4391197000279</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04235922000139</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>12613869000190</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>06288119000198</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>18517926000114</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08563964000150</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>27853076000116</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>06075430000159</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2837785000187</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>02470728000102</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>12807765000117</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>02337399000126</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>10836602000137</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>04782916000100</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>9265212000175</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>02327937000100</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>7646538000117</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>02077618000185</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>4792633000130</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>08560510000125</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>17595464000190</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>05317665000147</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>4284315000169</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>08850788000137</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>13477074000165</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>05132492000192</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>4210668000114</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01316665000171</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>19809060000188</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>03229795000100</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>6911404000113</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09209716000178</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>5367573000171</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06645688000143</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>17567823000104</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>03282774000140</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>15034464000196</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01547029000150</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>13959877000156</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>09532523000153</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>7303836000104</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04275438000133</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>12162369000180</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04741395000215</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>9467864000192</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>03401873000102</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>18659451000109</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>04940191000122</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>8434156000192</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>01191226000180</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>31076078000113</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>08568622000122</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>10574932000100</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>02303624000103</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>6315338002405</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>04679877000101</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>6315338015060</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>05564404000121</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>13698891000143</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0320527000284</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>15183027000134</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>09116541000154</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>20206313000108</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>06894543000186</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>75164350000192</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>09506555000184</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>2853842000111</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>02891395000195</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>90739624000118</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>03631148000112</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>17252984000109</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0308363000199</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>19390912000145</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>07044171000161</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>18887107000169</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>08720977000195</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>11699378000737</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>07280328000158</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>9034894000105</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>07280328001715</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>12323211000144</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>07280328001804</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>16637920000155</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>04834392000145</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>19641175000106</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>04437534001455</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>6155743000117</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>09510802000116</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>8628438000120</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>08232734000108</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>17891659000188</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>01400885000189</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>15634978000182</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>04167727000119</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>13176708000140</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>07835954000163</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>14173231000101</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>07203652000172</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>7170321000183</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>0873894001791</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>61548855000146</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>07446868000169</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>77585818000148</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>0164308000172</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>11344131000102</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>06036371000100</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>8205277000162</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>07778002000155</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>2491558000738</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>0470127000174</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>66841370000160</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>04834947000159</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>8428051000120</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>04773174000148</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>16930388000160</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>03021735000190</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>2634097000110</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>09420658000127</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>8591679000142</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>05682451000170</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>11426388000103</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>03192800000140</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>18822876000189</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>08656997000144</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>66119751000130</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>07709134000125</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>8313271000370</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>0284975000199</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>8658685000170</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>08933586000159</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>5351022000110</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>03019103000191</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>5820781000184</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>07550674000109</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>1338388000106</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>08602078000198</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>7165071000193</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>04181281000187</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>14945247000195</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>07536617000175</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>10544341000181</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>03342856000133</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>1468484000160</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>08106118000100</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>18224098000126</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>04146206000185</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>69282713000191</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>05311153000173</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>15787527000185</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>08679066000161</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>18973965000126</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>06962844000108</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>3328850000101</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>01650167000160</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>8775814000100</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>075511000172</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>19345686000180</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>01787793002147</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>5031306000129</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>04844206000159</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>2617806000159</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>01958002000150</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>2895964000170</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>03759926000153</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>3731011000130</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>07268509000169</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>5301589000181</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>05737091000166</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>44921823000125</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>08211550000161</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>3108734000187</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>07026256000117</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>2753327000160</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>02804480000179</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>8865899000117</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>02841907000109</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>2358783000105</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>05200237000130</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>4935819000100</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>02853139000103</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>10421172000192</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>08795211000331</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>20195878000137</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>03402181000685</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>20593977000177</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>04090335000107</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>912481000101</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>04478859000161</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>10984416000145</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>05406016000112</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
   </sheetData>
